--- a/Civilworks cost/Expenditure_2017_18/Input Output/CW_EXP.xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Input Output/CW_EXP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="civil_expenditure_list" sheetId="2" r:id="rId1"/>
@@ -493,13 +493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>868675.3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>5111</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1246270.51</v>
       </c>
@@ -571,7 +571,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>977159.46</v>
       </c>
@@ -594,7 +594,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1270248.02</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1301420.4099999999</v>
       </c>
@@ -640,7 +640,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1849656.59</v>
       </c>
@@ -663,7 +663,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>14920.52</v>
       </c>
@@ -686,7 +686,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1861922.65</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1691082.75</v>
       </c>
@@ -732,7 +732,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1757526.36</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1326003.8999999999</v>
       </c>
@@ -778,7 +778,7 @@
         <v>5167</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1953419.2</v>
       </c>
@@ -801,7 +801,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1349122.86</v>
       </c>
@@ -824,7 +824,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1031971.97</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>987895.66</v>
       </c>
@@ -870,7 +870,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1526552.88</v>
       </c>
@@ -893,7 +893,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13205.02</v>
       </c>
@@ -916,7 +916,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1079237.3</v>
       </c>
@@ -939,7 +939,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>92074.32</v>
       </c>
@@ -962,7 +962,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1179774.21</v>
       </c>
@@ -985,7 +985,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1644.13</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1009464.56</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>759970.01</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>588194.29</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1426260.2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1922383.98</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1424219.78</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>5207</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1915491.13</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>544709.93000000005</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1691782.28</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2144120.84</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>60664.63</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>908558.82000000007</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1815917.41</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1059919.2</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>267084.36</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>341498.15</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2510446.7799999998</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>764567.41</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>6891.23</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2765408.62</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3234567.78</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>288580.40999999997</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>145514.98000000001</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1062841.3400000001</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1033450.21</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2168981.4900000002</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>14000</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>794298.79</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>727450.68</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>671635.56</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5294</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>16263.6</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>5294</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3320601.18</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>17763.37</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1794717.23</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>790305.35</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>5309</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>527009.07999999996</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>521430</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1045102.26</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1076805.32</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>325936.3</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>843349.35</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>247047.73</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>460719.23</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>21604.48</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>304896.08</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1600521.3</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>686407</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>5359</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1446653.78</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>695336.2</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>5367</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>6671</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>966498.54</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>185436.96</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>464591.72</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1826899.76</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>5394</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>851943</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>854571.64</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1223888.54</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>169880.7</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1898653.92</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1148104.05</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>4574.97</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>257.94</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1705356.38</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1652845.88</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>464646.98</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>79202.929999999993</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>980087.64</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1895008.27</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>974915.43</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1202749.29</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>517631.19</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>137423.64000000001</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>698772</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>78728.22</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>55986.06</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>786222.96</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>269003.96000000002</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>202244.28</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>5419</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>454863.08</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>5419</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1240845.3400000001</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>582797.6</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>444288.74</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>5432</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>969024.55</v>
       </c>
